--- a/PECGI_SPC/Template/Template FTA Master.xlsx
+++ b/PECGI_SPC/Template/Template FTA Master.xlsx
@@ -13,6 +13,120 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>TOS37</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mandatory Input</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mandatory Input</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mandatory Input</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mandatory Input</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mandatory Input</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mandatory Input</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mandatory Input
+Fill With : 0 / 1 / Yes / No
+Note :
+0 (InActive)
+1 (Active)
+No (InActive)
+Yes (Active)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
@@ -59,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +196,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -444,17 +565,20 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -510,5 +634,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PECGI_SPC/Template/Template FTA Master.xlsx
+++ b/PECGI_SPC/Template/Template FTA Master.xlsx
@@ -29,7 +29,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Mandatory Input</t>
+          <t>* Type must be filled</t>
         </r>
       </text>
     </comment>
@@ -43,7 +43,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Mandatory Input</t>
+          <t>* Item Check Must Be Filled</t>
         </r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Mandatory Input</t>
+          <t>* FTA ID Must Be Filled</t>
         </r>
       </text>
     </comment>
@@ -71,7 +71,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Mandatory Input</t>
+          <t>* Counter Measure Must Be Filled</t>
         </r>
       </text>
     </comment>
@@ -85,7 +85,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Mandatory Input</t>
+          <t>* Check Item Must be Filled</t>
         </r>
       </text>
     </comment>
@@ -99,7 +99,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Mandatory Input</t>
+          <t>* Check Order must be filled</t>
         </r>
       </text>
     </comment>
@@ -113,7 +113,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Mandatory Input
+          <t>* Active status must be filled
 Fill With : 0 / 1 / Yes / No
 Note :
 0 (InActive)
@@ -565,7 +565,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/PECGI_SPC/Template/Template FTA Master.xlsx
+++ b/PECGI_SPC/Template/Template FTA Master.xlsx
@@ -29,7 +29,9 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>* Type must be filled</t>
+          <t>* Type must be filled
+Ex : BR2450A
+For format Type can be view on Menu A020 - Item Check By Type</t>
         </r>
       </text>
     </comment>
@@ -43,7 +45,9 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>* Item Check Must Be Filled</t>
+          <t>* Item Check Must Be Filled
+Ex : IC020
+For format Item Check can be view on Menu A020 - Item Check By Type</t>
         </r>
       </text>
     </comment>
@@ -57,7 +61,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>* FTA ID Must Be Filled</t>
+          <t>* FTA ID Must Be Filled
+Ex : IC020-1</t>
         </r>
       </text>
     </comment>
@@ -565,7 +570,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
